--- a/group2 project/results/res_gen/p_mw.xlsx
+++ b/group2 project/results/res_gen/p_mw.xlsx
@@ -366,207 +366,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0.09180947066839784</v>
+      </c>
+      <c r="D2">
+        <v>39.27027815818423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0.09106907171139463</v>
+      </c>
+      <c r="D3">
+        <v>39.76939137462676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0.08588627901237217</v>
+      </c>
+      <c r="D4">
+        <v>39.21276070314078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0.08681177770862618</v>
+      </c>
+      <c r="D5">
+        <v>37.75910917540354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>0.08662667796937538</v>
+      </c>
+      <c r="D6">
+        <v>36.68639292369171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0.08662667796937538</v>
+      </c>
+      <c r="D7">
+        <v>36.68639292369171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0.08366508214136255</v>
+      </c>
+      <c r="D8">
+        <v>36.48649619468828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0.08403528161986415</v>
+      </c>
+      <c r="D9">
+        <v>36.17910782839054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>0.08588627901237217</v>
+      </c>
+      <c r="D10">
+        <v>37.18707765529937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0.08088858605260052</v>
+      </c>
+      <c r="D11">
+        <v>37.89080214624071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>1.057104610861331</v>
+      </c>
+      <c r="D12">
+        <v>37.58184226477785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>7.595197600678162</v>
+      </c>
+      <c r="D13">
+        <v>37.23736614058326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>13.42287779125041</v>
+      </c>
+      <c r="D14">
+        <v>36.74171025750398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>15.74495402015173</v>
+      </c>
+      <c r="D15">
+        <v>36.00561255416115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>16.60696350584271</v>
+      </c>
+      <c r="D16">
+        <v>36.72505219675369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>17.25</v>
+      </c>
+      <c r="D17">
+        <v>37.65916081090182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>16.67711630701877</v>
+      </c>
+      <c r="D18">
+        <v>37.56895584042386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>14.63768737995343</v>
+      </c>
+      <c r="D19">
+        <v>37.98697887434614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>7.235178607835352</v>
+      </c>
+      <c r="D20">
+        <v>37.90494578272681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0.665063363128132</v>
+      </c>
+      <c r="D21">
+        <v>38.3776575443953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0.1155022372925005</v>
+      </c>
+      <c r="D22">
+        <v>39.44408773544664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0.10846844720097</v>
+      </c>
+      <c r="D23">
+        <v>40.59443683631547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0.1012495573701888</v>
+      </c>
+      <c r="D24">
+        <v>41.40376714635296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
         <v>180</v>
+      </c>
+      <c r="C25">
+        <v>0.09884326075992833</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_gen/p_mw.xlsx
+++ b/group2 project/results/res_gen/p_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -382,8 +382,11 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -396,8 +399,11 @@
       <c r="D2">
         <v>39.27027815818423</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>45.15455305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -410,8 +416,11 @@
       <c r="D3">
         <v>39.76939137462676</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>43.54636591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -424,8 +433,11 @@
       <c r="D4">
         <v>39.21276070314078</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>43.33751044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -438,8 +450,11 @@
       <c r="D5">
         <v>37.75910917540354</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>42.41854637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -452,8 +467,11 @@
       <c r="D6">
         <v>36.68639292369171</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>42.37677527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -466,8 +484,11 @@
       <c r="D7">
         <v>36.68639292369171</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>42.37677527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -480,8 +501,11 @@
       <c r="D8">
         <v>36.48649619468828</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>47.47284879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -494,8 +518,11 @@
       <c r="D9">
         <v>36.17910782839054</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>46.97159566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -508,8 +535,11 @@
       <c r="D10">
         <v>37.18707765529937</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>64.76608187000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -522,8 +552,11 @@
       <c r="D11">
         <v>37.89080214624071</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>85.98579783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -536,8 +569,11 @@
       <c r="D12">
         <v>37.58184226477785</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>85.50543024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -550,8 +586,11 @@
       <c r="D13">
         <v>37.23736614058326</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>80.53467001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -564,8 +603,11 @@
       <c r="D14">
         <v>36.74171025750398</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>67.23057644000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -578,8 +620,11 @@
       <c r="D15">
         <v>36.00561255416115</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>60.46365915000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -592,8 +637,11 @@
       <c r="D16">
         <v>36.72505219675369</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>54.76190476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -606,8 +654,11 @@
       <c r="D17">
         <v>37.65916081090182</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>46.82539683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -620,8 +671,11 @@
       <c r="D18">
         <v>37.56895584042386</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>42.04260652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -634,8 +688,11 @@
       <c r="D19">
         <v>37.98697887434614</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>49.62406015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -648,8 +705,11 @@
       <c r="D20">
         <v>37.90494578272681</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>70.65580618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -662,8 +722,11 @@
       <c r="D21">
         <v>38.3776575443953</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -676,8 +739,11 @@
       <c r="D22">
         <v>39.44408773544664</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>94.34001671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -690,8 +756,11 @@
       <c r="D23">
         <v>40.59443683631547</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>93.14954052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -704,8 +773,11 @@
       <c r="D24">
         <v>41.40376714635296</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>90.58061821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -717,6 +789,9 @@
       </c>
       <c r="D25">
         <v>42</v>
+      </c>
+      <c r="E25">
+        <v>73.83040936</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_gen/p_mw.xlsx
+++ b/group2 project/results/res_gen/p_mw.xlsx
@@ -400,7 +400,7 @@
         <v>39.27027815818423</v>
       </c>
       <c r="E2">
-        <v>45.15455305</v>
+        <v>8.504271043156727</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -417,7 +417,7 @@
         <v>39.76939137462676</v>
       </c>
       <c r="E3">
-        <v>43.54636591</v>
+        <v>7.095112050919229</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -434,7 +434,7 @@
         <v>39.21276070314078</v>
       </c>
       <c r="E4">
-        <v>43.33751044</v>
+        <v>6.074843738942634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -451,7 +451,7 @@
         <v>37.75910917540354</v>
       </c>
       <c r="E5">
-        <v>42.41854637</v>
+        <v>5.852635915077985</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -468,7 +468,7 @@
         <v>36.68639292369171</v>
       </c>
       <c r="E6">
-        <v>42.37677527</v>
+        <v>5.817614692562795</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -485,7 +485,7 @@
         <v>36.68639292369171</v>
       </c>
       <c r="E7">
-        <v>42.37677527</v>
+        <v>5.817614692562795</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -502,7 +502,7 @@
         <v>36.48649619468828</v>
       </c>
       <c r="E8">
-        <v>47.47284879</v>
+        <v>5.467099543263148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -519,7 +519,7 @@
         <v>36.17910782839054</v>
       </c>
       <c r="E9">
-        <v>46.97159566</v>
+        <v>6.5422616799479</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -536,7 +536,7 @@
         <v>37.18707765529937</v>
       </c>
       <c r="E10">
-        <v>64.76608187000001</v>
+        <v>7.07204361530547</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -553,7 +553,7 @@
         <v>37.89080214624071</v>
       </c>
       <c r="E11">
-        <v>85.98579783</v>
+        <v>7.231394182294224</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -570,7 +570,7 @@
         <v>37.58184226477785</v>
       </c>
       <c r="E12">
-        <v>85.50543024</v>
+        <v>7.881797967737571</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -587,7 +587,7 @@
         <v>37.23736614058326</v>
       </c>
       <c r="E13">
-        <v>80.53467001</v>
+        <v>5.782883910790431</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -604,7 +604,7 @@
         <v>36.74171025750398</v>
       </c>
       <c r="E14">
-        <v>67.23057644000001</v>
+        <v>4.174537737862152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -621,7 +621,7 @@
         <v>36.00561255416115</v>
       </c>
       <c r="E15">
-        <v>60.46365915000001</v>
+        <v>3.521400405972795</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -638,7 +638,7 @@
         <v>36.72505219675369</v>
       </c>
       <c r="E16">
-        <v>54.76190476</v>
+        <v>3.431899567968564</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -655,7 +655,7 @@
         <v>37.65916081090182</v>
       </c>
       <c r="E17">
-        <v>46.82539683</v>
+        <v>3.624411083407697</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -672,7 +672,7 @@
         <v>37.56895584042386</v>
       </c>
       <c r="E18">
-        <v>42.04260652</v>
+        <v>3.713333277334967</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -689,7 +689,7 @@
         <v>37.98697887434614</v>
       </c>
       <c r="E19">
-        <v>49.62406015</v>
+        <v>3.594416199966494</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -706,7 +706,7 @@
         <v>37.90494578272681</v>
       </c>
       <c r="E20">
-        <v>70.65580618</v>
+        <v>5.599850307891733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -723,7 +723,7 @@
         <v>38.3776575443953</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>7.367887259335863</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -740,7 +740,7 @@
         <v>39.44408773544664</v>
       </c>
       <c r="E22">
-        <v>94.34001671</v>
+        <v>8.982671891145651</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -757,7 +757,7 @@
         <v>40.59443683631547</v>
       </c>
       <c r="E23">
-        <v>93.14954052</v>
+        <v>9.642302863756663</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -774,7 +774,7 @@
         <v>41.40376714635296</v>
       </c>
       <c r="E24">
-        <v>90.58061821</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -791,7 +791,7 @@
         <v>42</v>
       </c>
       <c r="E25">
-        <v>73.83040936</v>
+        <v>9.842033943508051</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_gen/p_mw.xlsx
+++ b/group2 project/results/res_gen/p_mw.xlsx
@@ -400,7 +400,7 @@
         <v>39.27027815818423</v>
       </c>
       <c r="E2">
-        <v>8.504271043156727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -417,7 +417,7 @@
         <v>39.76939137462676</v>
       </c>
       <c r="E3">
-        <v>7.095112050919229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -434,7 +434,7 @@
         <v>39.21276070314078</v>
       </c>
       <c r="E4">
-        <v>6.074843738942634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -451,7 +451,7 @@
         <v>37.75910917540354</v>
       </c>
       <c r="E5">
-        <v>5.852635915077985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -468,7 +468,7 @@
         <v>36.68639292369171</v>
       </c>
       <c r="E6">
-        <v>5.817614692562795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -485,7 +485,7 @@
         <v>36.68639292369171</v>
       </c>
       <c r="E7">
-        <v>5.817614692562795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -502,7 +502,7 @@
         <v>36.48649619468828</v>
       </c>
       <c r="E8">
-        <v>5.467099543263148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -519,7 +519,7 @@
         <v>36.17910782839054</v>
       </c>
       <c r="E9">
-        <v>6.5422616799479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -536,7 +536,7 @@
         <v>37.18707765529937</v>
       </c>
       <c r="E10">
-        <v>7.07204361530547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -553,7 +553,7 @@
         <v>37.89080214624071</v>
       </c>
       <c r="E11">
-        <v>7.231394182294224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -570,7 +570,7 @@
         <v>37.58184226477785</v>
       </c>
       <c r="E12">
-        <v>7.881797967737571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -587,7 +587,7 @@
         <v>37.23736614058326</v>
       </c>
       <c r="E13">
-        <v>5.782883910790431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -604,7 +604,7 @@
         <v>36.74171025750398</v>
       </c>
       <c r="E14">
-        <v>4.174537737862152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -621,7 +621,7 @@
         <v>36.00561255416115</v>
       </c>
       <c r="E15">
-        <v>3.521400405972795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -638,7 +638,7 @@
         <v>36.72505219675369</v>
       </c>
       <c r="E16">
-        <v>3.431899567968564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -655,7 +655,7 @@
         <v>37.65916081090182</v>
       </c>
       <c r="E17">
-        <v>3.624411083407697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -672,7 +672,7 @@
         <v>37.56895584042386</v>
       </c>
       <c r="E18">
-        <v>3.713333277334967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -689,7 +689,7 @@
         <v>37.98697887434614</v>
       </c>
       <c r="E19">
-        <v>3.594416199966494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -706,7 +706,7 @@
         <v>37.90494578272681</v>
       </c>
       <c r="E20">
-        <v>5.599850307891733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -723,7 +723,7 @@
         <v>38.3776575443953</v>
       </c>
       <c r="E21">
-        <v>7.367887259335863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -740,7 +740,7 @@
         <v>39.44408773544664</v>
       </c>
       <c r="E22">
-        <v>8.982671891145651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -757,7 +757,7 @@
         <v>40.59443683631547</v>
       </c>
       <c r="E23">
-        <v>9.642302863756663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -774,7 +774,7 @@
         <v>41.40376714635296</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -791,7 +791,7 @@
         <v>42</v>
       </c>
       <c r="E25">
-        <v>9.842033943508051</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_gen/p_mw.xlsx
+++ b/group2 project/results/res_gen/p_mw.xlsx
@@ -400,7 +400,7 @@
         <v>39.27027815818423</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.333333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -417,7 +417,7 @@
         <v>39.76939137462676</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.333333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -434,7 +434,7 @@
         <v>39.21276070314078</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-3.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -451,7 +451,7 @@
         <v>37.75910917540354</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-7.333333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -468,7 +468,7 @@
         <v>36.68639292369171</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-7.333333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -485,7 +485,7 @@
         <v>36.68639292369171</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -502,7 +502,7 @@
         <v>36.48649619468828</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7.333333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -519,7 +519,7 @@
         <v>36.17910782839054</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -536,7 +536,7 @@
         <v>37.18707765529937</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7.333333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/group2 project/results/res_gen/p_mw.xlsx
+++ b/group2 project/results/res_gen/p_mw.xlsx
@@ -397,7 +397,7 @@
         <v>0.09180947066839784</v>
       </c>
       <c r="D2">
-        <v>39.27027815818423</v>
+        <v>157.0811126327369</v>
       </c>
       <c r="E2">
         <v>7.333333333333334</v>
@@ -414,7 +414,7 @@
         <v>0.09106907171139463</v>
       </c>
       <c r="D3">
-        <v>39.76939137462676</v>
+        <v>159.0775654985071</v>
       </c>
       <c r="E3">
         <v>7.333333333333334</v>
@@ -431,7 +431,7 @@
         <v>0.08588627901237217</v>
       </c>
       <c r="D4">
-        <v>39.21276070314078</v>
+        <v>156.8510428125631</v>
       </c>
       <c r="E4">
         <v>-3.666666666666667</v>
@@ -448,7 +448,7 @@
         <v>0.08681177770862618</v>
       </c>
       <c r="D5">
-        <v>37.75910917540354</v>
+        <v>151.0364367016142</v>
       </c>
       <c r="E5">
         <v>-7.333333333333334</v>
@@ -465,7 +465,7 @@
         <v>0.08662667796937538</v>
       </c>
       <c r="D6">
-        <v>36.68639292369171</v>
+        <v>146.7455716947669</v>
       </c>
       <c r="E6">
         <v>-7.333333333333334</v>
@@ -482,7 +482,7 @@
         <v>0.08662667796937538</v>
       </c>
       <c r="D7">
-        <v>36.68639292369171</v>
+        <v>146.7455716947669</v>
       </c>
       <c r="E7">
         <v>3.666666666666667</v>
@@ -499,7 +499,7 @@
         <v>0.08366508214136255</v>
       </c>
       <c r="D8">
-        <v>36.48649619468828</v>
+        <v>145.9459847787531</v>
       </c>
       <c r="E8">
         <v>7.333333333333334</v>
@@ -516,7 +516,7 @@
         <v>0.08403528161986415</v>
       </c>
       <c r="D9">
-        <v>36.17910782839054</v>
+        <v>144.7164313135622</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.08588627901237217</v>
       </c>
       <c r="D10">
-        <v>37.18707765529937</v>
+        <v>148.7483106211975</v>
       </c>
       <c r="E10">
         <v>7.333333333333334</v>
@@ -550,7 +550,7 @@
         <v>0.08088858605260052</v>
       </c>
       <c r="D11">
-        <v>37.89080214624071</v>
+        <v>151.5632085849628</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>1.057104610861331</v>
       </c>
       <c r="D12">
-        <v>37.58184226477785</v>
+        <v>150.3273690591114</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>7.595197600678162</v>
       </c>
       <c r="D13">
-        <v>37.23736614058326</v>
+        <v>148.949464562333</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>13.42287779125041</v>
       </c>
       <c r="D14">
-        <v>36.74171025750398</v>
+        <v>146.9668410300159</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>15.74495402015173</v>
       </c>
       <c r="D15">
-        <v>36.00561255416115</v>
+        <v>144.0224502166446</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>16.60696350584271</v>
       </c>
       <c r="D16">
-        <v>36.72505219675369</v>
+        <v>146.9002087870148</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>17.25</v>
       </c>
       <c r="D17">
-        <v>37.65916081090182</v>
+        <v>150.6366432436073</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>16.67711630701877</v>
       </c>
       <c r="D18">
-        <v>37.56895584042386</v>
+        <v>150.2758233616954</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>14.63768737995343</v>
       </c>
       <c r="D19">
-        <v>37.98697887434614</v>
+        <v>151.9479154973845</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>7.235178607835352</v>
       </c>
       <c r="D20">
-        <v>37.90494578272681</v>
+        <v>151.6197831309072</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0.665063363128132</v>
       </c>
       <c r="D21">
-        <v>38.3776575443953</v>
+        <v>153.5106301775812</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0.1155022372925005</v>
       </c>
       <c r="D22">
-        <v>39.44408773544664</v>
+        <v>157.7763509417866</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0.10846844720097</v>
       </c>
       <c r="D23">
-        <v>40.59443683631547</v>
+        <v>162.3777473452619</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0.1012495573701888</v>
       </c>
       <c r="D24">
-        <v>41.40376714635296</v>
+        <v>165.6150685854118</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0.09884326075992833</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="E25">
         <v>0</v>
